--- a/Género/Violencia contra Mujer/27.14.xlsx
+++ b/Género/Violencia contra Mujer/27.14.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\Balance de Gestión Integral 2019 Min Mujer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B996D3-F8C9-4E32-A154-F4B8F696B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5F9A9E-C4F2-4411-B7A4-3B24A72D6E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{48839F3C-A211-4257-B4F1-8660A6FDD9D5}"/>
   </bookViews>
@@ -739,7 +739,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +881,7 @@
         <v>270108003</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>20393</v>
